--- a/USA Kodi Theaters List Final.xlsx
+++ b/USA Kodi Theaters List Final.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$40</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="114">
   <si>
     <t>State</t>
   </si>
@@ -344,13 +344,31 @@
   </si>
   <si>
     <t>10/28: 10:00 PM</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Greenwood 8</t>
+  </si>
+  <si>
+    <t>1848 E Stop 13 Rd, Indianapolis, IN 46227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FunAsia </t>
+  </si>
+  <si>
+    <t>1210 E Belt Line Rd, Richardson, TX 75081</t>
+  </si>
+  <si>
+    <t>Onlinet ticket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +435,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -466,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +564,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -831,7 +885,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.6640625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -1091,49 +1145,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:5" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>24</v>
@@ -1147,10 +1201,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>24</v>
@@ -1161,13 +1215,13 @@
     </row>
     <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>24</v>
@@ -1176,21 +1230,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -1198,113 +1252,113 @@
         <v>22</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="D26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D27" s="22" t="s">
         <v>24</v>
       </c>
@@ -1312,15 +1366,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>24</v>
@@ -1334,183 +1388,217 @@
         <v>16</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="D30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="D31" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="E33" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="D38" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="D39" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="D40" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C41" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1527,35 +1615,37 @@
     <hyperlink ref="D10" r:id="rId6"/>
     <hyperlink ref="D12" r:id="rId7"/>
     <hyperlink ref="D14" r:id="rId8"/>
-    <hyperlink ref="D15" r:id="rId9"/>
-    <hyperlink ref="D16" r:id="rId10"/>
-    <hyperlink ref="D18" r:id="rId11"/>
-    <hyperlink ref="D17" r:id="rId12"/>
-    <hyperlink ref="D25" r:id="rId13"/>
-    <hyperlink ref="D29" r:id="rId14"/>
-    <hyperlink ref="D28" r:id="rId15"/>
-    <hyperlink ref="D27" r:id="rId16"/>
-    <hyperlink ref="D36" r:id="rId17"/>
-    <hyperlink ref="D35" r:id="rId18"/>
-    <hyperlink ref="D37" r:id="rId19"/>
-    <hyperlink ref="D22" r:id="rId20"/>
+    <hyperlink ref="D16" r:id="rId9"/>
+    <hyperlink ref="D17" r:id="rId10"/>
+    <hyperlink ref="D19" r:id="rId11"/>
+    <hyperlink ref="D18" r:id="rId12"/>
+    <hyperlink ref="D26" r:id="rId13"/>
+    <hyperlink ref="D30" r:id="rId14"/>
+    <hyperlink ref="D29" r:id="rId15"/>
+    <hyperlink ref="D28" r:id="rId16"/>
+    <hyperlink ref="D38" r:id="rId17"/>
+    <hyperlink ref="D37" r:id="rId18"/>
+    <hyperlink ref="D39" r:id="rId19"/>
+    <hyperlink ref="D23" r:id="rId20"/>
     <hyperlink ref="D2" r:id="rId21"/>
     <hyperlink ref="D11" r:id="rId22"/>
     <hyperlink ref="D13" r:id="rId23"/>
-    <hyperlink ref="D20" r:id="rId24"/>
-    <hyperlink ref="D21" r:id="rId25"/>
-    <hyperlink ref="D23" r:id="rId26"/>
-    <hyperlink ref="D30" r:id="rId27"/>
-    <hyperlink ref="D31" r:id="rId28"/>
-    <hyperlink ref="D26" r:id="rId29"/>
-    <hyperlink ref="D19" r:id="rId30"/>
+    <hyperlink ref="D21" r:id="rId24"/>
+    <hyperlink ref="D22" r:id="rId25"/>
+    <hyperlink ref="D24" r:id="rId26"/>
+    <hyperlink ref="D31" r:id="rId27"/>
+    <hyperlink ref="D32" r:id="rId28"/>
+    <hyperlink ref="D27" r:id="rId29"/>
+    <hyperlink ref="D20" r:id="rId30"/>
     <hyperlink ref="D3" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D32" r:id="rId33"/>
-    <hyperlink ref="D34" r:id="rId34"/>
-    <hyperlink ref="D38" r:id="rId35"/>
+    <hyperlink ref="D35" r:id="rId32"/>
+    <hyperlink ref="D33" r:id="rId33"/>
+    <hyperlink ref="D36" r:id="rId34"/>
+    <hyperlink ref="D40" r:id="rId35"/>
+    <hyperlink ref="D15" r:id="rId36"/>
+    <hyperlink ref="D34" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>